--- a/Pokemon_Server/data/pkm_conquest_warrior_transformation.xlsx
+++ b/Pokemon_Server/data/pkm_conquest_warrior_transformation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="12">
   <si>
     <t>transformed_warrior_rank_id</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>warrior_count</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -445,16 +451,16 @@
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
       <c r="C3">
         <v>80</v>
@@ -467,16 +473,16 @@
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5">
         <v>80</v>
@@ -489,8 +495,8 @@
       <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6">
         <v>80</v>
@@ -503,8 +509,8 @@
       <c r="A7">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7">
         <v>55</v>
@@ -514,8 +520,8 @@
       <c r="A8">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
       <c r="C8">
         <v>60</v>
@@ -525,8 +531,8 @@
       <c r="A9">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>11</v>
       </c>
       <c r="C9">
         <v>70</v>
@@ -536,8 +542,8 @@
       <c r="A10">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
       <c r="C10">
         <v>65</v>
@@ -547,8 +553,8 @@
       <c r="A11">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
       <c r="C11">
         <v>60</v>
@@ -561,8 +567,8 @@
       <c r="A12">
         <v>19</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>11</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -575,8 +581,8 @@
       <c r="A13">
         <v>21</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>11</v>
       </c>
       <c r="C13">
         <v>70</v>
@@ -589,8 +595,8 @@
       <c r="A14">
         <v>23</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>11</v>
       </c>
       <c r="C14">
         <v>60</v>
@@ -600,8 +606,8 @@
       <c r="A15">
         <v>25</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>11</v>
       </c>
       <c r="C15">
         <v>60</v>
@@ -614,8 +620,8 @@
       <c r="A16">
         <v>27</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>11</v>
       </c>
       <c r="C16">
         <v>75</v>
@@ -628,8 +634,8 @@
       <c r="A17">
         <v>29</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>11</v>
       </c>
       <c r="C17">
         <v>60</v>
@@ -642,8 +648,8 @@
       <c r="A18">
         <v>31</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>11</v>
       </c>
       <c r="C18">
         <v>75</v>
@@ -656,8 +662,8 @@
       <c r="A19">
         <v>33</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>11</v>
       </c>
       <c r="C19">
         <v>55</v>
@@ -667,8 +673,8 @@
       <c r="A20">
         <v>35</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>11</v>
       </c>
       <c r="C20">
         <v>60</v>
@@ -678,8 +684,8 @@
       <c r="A21">
         <v>37</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>11</v>
       </c>
       <c r="C21">
         <v>60</v>
@@ -692,8 +698,8 @@
       <c r="A22">
         <v>39</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>11</v>
       </c>
       <c r="C22">
         <v>60</v>
@@ -703,8 +709,8 @@
       <c r="A23">
         <v>41</v>
       </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>11</v>
       </c>
       <c r="C23">
         <v>70</v>
@@ -717,8 +723,8 @@
       <c r="A24">
         <v>43</v>
       </c>
-      <c r="B24">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>11</v>
       </c>
       <c r="C24">
         <v>60</v>
@@ -728,8 +734,8 @@
       <c r="A25">
         <v>45</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>11</v>
       </c>
       <c r="C25">
         <v>60</v>
@@ -739,8 +745,8 @@
       <c r="A26">
         <v>47</v>
       </c>
-      <c r="B26">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>11</v>
       </c>
       <c r="C26">
         <v>60</v>
@@ -753,8 +759,8 @@
       <c r="A27">
         <v>49</v>
       </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>11</v>
       </c>
       <c r="C27">
         <v>60</v>
@@ -764,8 +770,8 @@
       <c r="A28">
         <v>51</v>
       </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>11</v>
       </c>
       <c r="C28">
         <v>60</v>
@@ -775,8 +781,8 @@
       <c r="A29">
         <v>53</v>
       </c>
-      <c r="B29">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>11</v>
       </c>
       <c r="C29">
         <v>60</v>
@@ -786,8 +792,8 @@
       <c r="A30">
         <v>55</v>
       </c>
-      <c r="B30">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>11</v>
       </c>
       <c r="C30">
         <v>65</v>
@@ -797,8 +803,8 @@
       <c r="A31">
         <v>57</v>
       </c>
-      <c r="B31">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>11</v>
       </c>
       <c r="C31">
         <v>60</v>
@@ -811,8 +817,8 @@
       <c r="A32">
         <v>59</v>
       </c>
-      <c r="B32">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>11</v>
       </c>
       <c r="C32">
         <v>60</v>
@@ -822,8 +828,8 @@
       <c r="A33">
         <v>61</v>
       </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>11</v>
       </c>
       <c r="C33">
         <v>55</v>
@@ -833,8 +839,8 @@
       <c r="A34">
         <v>63</v>
       </c>
-      <c r="B34">
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>11</v>
       </c>
       <c r="C34">
         <v>55</v>
@@ -844,8 +850,8 @@
       <c r="A35">
         <v>65</v>
       </c>
-      <c r="B35">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>11</v>
       </c>
       <c r="C35">
         <v>65</v>
@@ -855,8 +861,8 @@
       <c r="A36">
         <v>67</v>
       </c>
-      <c r="B36">
-        <v>0</v>
+      <c r="B36" t="s">
+        <v>11</v>
       </c>
       <c r="C36">
         <v>60</v>
@@ -866,8 +872,8 @@
       <c r="A37">
         <v>69</v>
       </c>
-      <c r="B37">
-        <v>0</v>
+      <c r="B37" t="s">
+        <v>11</v>
       </c>
       <c r="C37">
         <v>80</v>
@@ -877,8 +883,8 @@
       <c r="A38">
         <v>71</v>
       </c>
-      <c r="B38">
-        <v>0</v>
+      <c r="B38" t="s">
+        <v>11</v>
       </c>
       <c r="C38">
         <v>65</v>
@@ -888,8 +894,8 @@
       <c r="A39">
         <v>73</v>
       </c>
-      <c r="B39">
-        <v>0</v>
+      <c r="B39" t="s">
+        <v>11</v>
       </c>
       <c r="C39">
         <v>70</v>
@@ -899,8 +905,8 @@
       <c r="A40">
         <v>75</v>
       </c>
-      <c r="B40">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>11</v>
       </c>
       <c r="C40">
         <v>60</v>
@@ -910,8 +916,8 @@
       <c r="A41">
         <v>77</v>
       </c>
-      <c r="B41">
-        <v>0</v>
+      <c r="B41" t="s">
+        <v>11</v>
       </c>
       <c r="C41">
         <v>60</v>
@@ -921,8 +927,8 @@
       <c r="A42">
         <v>79</v>
       </c>
-      <c r="B42">
-        <v>0</v>
+      <c r="B42" t="s">
+        <v>11</v>
       </c>
       <c r="C42">
         <v>60</v>
